--- a/Template/Export/Sari_Cases_9.xlsx
+++ b/Template/Export/Sari_Cases_9.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\inetpub\wwwroot\Template\Export\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Template\Export\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -95,9 +95,6 @@
     <t>sexo</t>
   </si>
   <si>
-    <t>Occupation</t>
-  </si>
-  <si>
     <t>TrabajoDirecc</t>
   </si>
   <si>
@@ -105,21 +102,6 @@
   </si>
   <si>
     <t>ContactoAnimVivos</t>
-  </si>
-  <si>
-    <t>OcupacMercAnimVivos</t>
-  </si>
-  <si>
-    <t>pais</t>
-  </si>
-  <si>
-    <t>provincia</t>
-  </si>
-  <si>
-    <t>canton</t>
-  </si>
-  <si>
-    <t>distrito</t>
   </si>
   <si>
     <t>UrbanRural</t>
@@ -135,9 +117,6 @@
   </si>
   <si>
     <t>longitud</t>
-  </si>
-  <si>
-    <t>ViajePrevSintoma</t>
   </si>
   <si>
     <t>DestPrevSintoma1</t>
@@ -207,9 +186,6 @@
   </si>
   <si>
     <t>fecha_segunda_dosis</t>
-  </si>
-  <si>
-    <t>neumococo</t>
   </si>
   <si>
     <t>neumococo_fecha</t>
@@ -353,9 +329,6 @@
     <t>AlteracEstadoMental</t>
   </si>
   <si>
-    <t>Altralgia</t>
-  </si>
-  <si>
     <t>Escalofrios</t>
   </si>
   <si>
@@ -375,9 +348,6 @@
   </si>
   <si>
     <t>FalloDesarrollo</t>
-  </si>
-  <si>
-    <t>Hepatomegalea</t>
   </si>
   <si>
     <t>Ictericia</t>
@@ -726,6 +696,36 @@
   </si>
   <si>
     <t>linaje_proceso_6</t>
+  </si>
+  <si>
+    <t>Trabajo</t>
+  </si>
+  <si>
+    <t>TrabajoMercAnimVivos</t>
+  </si>
+  <si>
+    <t>País</t>
+  </si>
+  <si>
+    <t>Provincia</t>
+  </si>
+  <si>
+    <t>Distrito</t>
+  </si>
+  <si>
+    <t>Cantón</t>
+  </si>
+  <si>
+    <t>Viaje.2SemPrevSintoma</t>
+  </si>
+  <si>
+    <t>Vac_Neumococo</t>
+  </si>
+  <si>
+    <t>Artralgia</t>
+  </si>
+  <si>
+    <t>Hepatomegalia</t>
   </si>
 </sst>
 </file>
@@ -1221,7 +1221,7 @@
     <col min="58" max="58" width="11.75" bestFit="1" customWidth="1"/>
     <col min="59" max="59" width="12.75" bestFit="1" customWidth="1"/>
     <col min="60" max="61" width="17.75" style="6" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="13.75" customWidth="1"/>
+    <col min="62" max="62" width="15.875" customWidth="1"/>
     <col min="63" max="63" width="17.75" style="6" bestFit="1" customWidth="1"/>
     <col min="64" max="64" width="15" bestFit="1" customWidth="1"/>
     <col min="66" max="66" width="17.75" style="7" bestFit="1" customWidth="1"/>
@@ -1270,7 +1270,7 @@
     <col min="114" max="114" width="6.5" style="5" bestFit="1" customWidth="1"/>
     <col min="115" max="115" width="13.75" style="5" bestFit="1" customWidth="1"/>
     <col min="116" max="116" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="117" max="117" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="117" max="117" width="14.375" customWidth="1"/>
     <col min="118" max="118" width="14.75" bestFit="1" customWidth="1"/>
     <col min="119" max="119" width="8.375" bestFit="1" customWidth="1"/>
     <col min="120" max="120" width="7.875" bestFit="1" customWidth="1"/>
@@ -1407,640 +1407,640 @@
         <v>22</v>
       </c>
       <c r="X1" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="Y1" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="11" t="s">
+      <c r="Z1" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="11" t="s">
+      <c r="AA1" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="11" t="s">
+      <c r="AB1" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="AC1" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="AD1" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="AE1" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="AF1" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="AG1" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="11" t="s">
+      <c r="AH1" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="8" t="s">
+      <c r="AI1" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="8" t="s">
+      <c r="AJ1" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="8" t="s">
+      <c r="AK1" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="8" t="s">
+      <c r="AL1" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="AM1" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="11" t="s">
+      <c r="AN1" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="8" t="s">
+      <c r="AO1" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="8" t="s">
+      <c r="AP1" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="8" t="s">
+      <c r="AQ1" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="8" t="s">
+      <c r="AR1" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="11" t="s">
+      <c r="AS1" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="11" t="s">
+      <c r="AT1" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="11" t="s">
+      <c r="AU1" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="15" t="s">
+      <c r="AV1" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="11" t="s">
+      <c r="AW1" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="11" t="s">
+      <c r="AX1" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="15" t="s">
+      <c r="AY1" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="11" t="s">
+      <c r="AZ1" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" s="15" t="s">
+      <c r="BA1" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" s="15" t="s">
+      <c r="BB1" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" s="11" t="s">
+      <c r="BC1" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" s="11" t="s">
+      <c r="BD1" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" s="11" t="s">
+      <c r="BE1" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" s="11" t="s">
+      <c r="BF1" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="AZ1" s="11" t="s">
+      <c r="BG1" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" s="11" t="s">
+      <c r="BH1" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="BB1" s="11" t="s">
+      <c r="BI1" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="BC1" s="8" t="s">
+      <c r="BJ1" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="BK1" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="BD1" s="8" t="s">
+      <c r="BL1" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="BE1" s="8" t="s">
+      <c r="BM1" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="BF1" s="8" t="s">
+      <c r="BN1" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="BG1" s="8" t="s">
+      <c r="BO1" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="BH1" s="12" t="s">
+      <c r="BP1" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="BI1" s="12" t="s">
+      <c r="BQ1" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="BJ1" s="8" t="s">
+      <c r="BR1" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="BK1" s="12" t="s">
+      <c r="BS1" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="BL1" s="8" t="s">
+      <c r="BT1" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="BM1" s="8" t="s">
+      <c r="BU1" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="BN1" s="12" t="s">
+      <c r="BV1" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="BO1" s="8" t="s">
+      <c r="BW1" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="BP1" s="8" t="s">
+      <c r="BX1" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="BQ1" s="8" t="s">
+      <c r="BY1" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="BR1" s="8" t="s">
+      <c r="BZ1" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="BS1" s="8" t="s">
+      <c r="CA1" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="BT1" s="8" t="s">
+      <c r="CB1" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="BU1" s="8" t="s">
+      <c r="CC1" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="BV1" s="8" t="s">
+      <c r="CD1" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="BW1" s="8" t="s">
+      <c r="CE1" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="BX1" s="8" t="s">
+      <c r="CF1" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="BY1" s="8" t="s">
+      <c r="CG1" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="BZ1" s="8" t="s">
+      <c r="CH1" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="CA1" s="8" t="s">
+      <c r="CI1" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="CB1" s="8" t="s">
+      <c r="CJ1" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="CC1" s="11" t="s">
+      <c r="CK1" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="CD1" s="11" t="s">
+      <c r="CL1" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="CE1" s="11" t="s">
+      <c r="CM1" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="CF1" s="8" t="s">
+      <c r="CN1" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="CG1" s="8" t="s">
+      <c r="CO1" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="CH1" s="8" t="s">
+      <c r="CP1" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="CI1" s="8" t="s">
+      <c r="CQ1" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="CJ1" s="8" t="s">
+      <c r="CR1" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="CK1" s="8" t="s">
+      <c r="CS1" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="CL1" s="8" t="s">
+      <c r="CT1" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="CM1" s="8" t="s">
+      <c r="CU1" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="CN1" s="13" t="s">
+      <c r="CV1" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="CO1" s="14" t="s">
+      <c r="CW1" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="CP1" s="8" t="s">
+      <c r="CX1" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="CQ1" s="8" t="s">
+      <c r="CY1" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="CR1" s="17" t="s">
+      <c r="CZ1" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="CS1" s="8" t="s">
+      <c r="DA1" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="CT1" s="8" t="s">
+      <c r="DB1" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="CU1" s="8" t="s">
+      <c r="DC1" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="CV1" s="8" t="s">
+      <c r="DD1" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="CW1" s="11" t="s">
+      <c r="DE1" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="CX1" s="11" t="s">
+      <c r="DF1" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="DG1" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="CY1" s="11" t="s">
+      <c r="DH1" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="CZ1" s="11" t="s">
+      <c r="DI1" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="DA1" s="11" t="s">
+      <c r="DJ1" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="DB1" s="11" t="s">
+      <c r="DK1" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="DC1" s="11" t="s">
+      <c r="DL1" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="DD1" s="11" t="s">
+      <c r="DM1" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="DE1" s="11" t="s">
+      <c r="DN1" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="DO1" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="DF1" s="11" t="s">
+      <c r="DP1" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="DG1" s="11" t="s">
+      <c r="DQ1" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="DH1" s="11" t="s">
+      <c r="DR1" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="DI1" s="11" t="s">
+      <c r="DS1" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="DJ1" s="11" t="s">
+      <c r="DT1" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="DK1" s="11" t="s">
+      <c r="DU1" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="DL1" s="11" t="s">
+      <c r="DV1" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="DM1" s="11" t="s">
+      <c r="DW1" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="DN1" s="11" t="s">
+      <c r="DX1" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="DO1" s="11" t="s">
+      <c r="DY1" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="DP1" s="11" t="s">
+      <c r="DZ1" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="DQ1" s="11" t="s">
+      <c r="EA1" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="DR1" s="11" t="s">
+      <c r="EB1" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="DS1" s="11" t="s">
+      <c r="EC1" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="DT1" s="11" t="s">
+      <c r="ED1" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="DU1" s="11" t="s">
+      <c r="EE1" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="DV1" s="11" t="s">
+      <c r="EF1" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="DW1" s="11" t="s">
+      <c r="EG1" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="DX1" s="11" t="s">
+      <c r="EH1" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="DY1" s="11" t="s">
+      <c r="EI1" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="DZ1" s="11" t="s">
+      <c r="EJ1" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="EA1" s="8" t="s">
+      <c r="EK1" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="EB1" s="8" t="s">
+      <c r="EL1" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="EC1" s="12" t="s">
+      <c r="EM1" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="ED1" s="8" t="s">
+      <c r="EN1" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="EE1" s="12" t="s">
+      <c r="EO1" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="EF1" s="11" t="s">
+      <c r="EP1" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="EG1" s="15" t="s">
+      <c r="EQ1" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="EH1" s="12" t="s">
+      <c r="ER1" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="EI1" s="8" t="s">
+      <c r="ES1" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="EJ1" s="12" t="s">
+      <c r="ET1" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="EK1" s="8" t="s">
+      <c r="EU1" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="EL1" s="8" t="s">
+      <c r="EV1" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="EM1" s="8" t="s">
+      <c r="EW1" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="EN1" s="8" t="s">
+      <c r="EX1" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="EO1" s="8" t="s">
+      <c r="EY1" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="EP1" s="8" t="s">
+      <c r="EZ1" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="EQ1" s="8" t="s">
+      <c r="FA1" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="FB1" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="ER1" s="14" t="s">
+      <c r="FC1" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="ES1" s="8" t="s">
+      <c r="FD1" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="ET1" s="8" t="s">
+      <c r="FE1" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="EU1" s="12" t="s">
+      <c r="FF1" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="EV1" s="16" t="s">
+      <c r="FG1" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="EW1" s="12" t="s">
+      <c r="FH1" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="EX1" s="8" t="s">
+      <c r="FI1" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="EY1" s="8" t="s">
+      <c r="FJ1" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="EZ1" s="12" t="s">
+      <c r="FK1" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="FA1" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="FB1" s="8" t="s">
+      <c r="FL1" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="FC1" s="8" t="s">
+      <c r="FM1" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="FD1" s="8" t="s">
+      <c r="FN1" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="FE1" s="8" t="s">
+      <c r="FO1" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="FF1" s="8" t="s">
+      <c r="FP1" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="FG1" s="8" t="s">
+      <c r="FQ1" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="FH1" s="8" t="s">
+      <c r="FR1" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="FI1" s="8" t="s">
+      <c r="FS1" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="FJ1" s="8" t="s">
+      <c r="FT1" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="FK1" s="8" t="s">
+      <c r="FU1" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="FL1" s="8" t="s">
+      <c r="FV1" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="FM1" s="8" t="s">
+      <c r="FW1" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="FN1" s="8" t="s">
+      <c r="FX1" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="FO1" s="8" t="s">
+      <c r="FY1" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="FP1" s="8" t="s">
+      <c r="FZ1" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="FQ1" s="13" t="s">
+      <c r="GA1" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="FR1" s="12" t="s">
+      <c r="GB1" s="13" t="s">
         <v>172</v>
       </c>
-      <c r="FS1" s="12" t="s">
+      <c r="GC1" s="12" t="s">
         <v>173</v>
       </c>
-      <c r="FT1" s="8" t="s">
+      <c r="GD1" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="FU1" s="8" t="s">
+      <c r="GE1" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="FV1" s="8" t="s">
+      <c r="GF1" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="FW1" s="8" t="s">
+      <c r="GG1" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="FX1" s="8" t="s">
+      <c r="GH1" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="FY1" s="8" t="s">
+      <c r="GI1" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="FZ1" s="8" t="s">
+      <c r="GJ1" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="GA1" s="8" t="s">
+      <c r="GK1" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="GB1" s="13" t="s">
+      <c r="GL1" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="GC1" s="12" t="s">
+      <c r="GM1" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="GD1" s="12" t="s">
+      <c r="GN1" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="GE1" s="8" t="s">
+      <c r="GO1" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="GF1" s="8" t="s">
+      <c r="GP1" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="GG1" s="8" t="s">
+      <c r="GQ1" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="GH1" s="8" t="s">
+      <c r="GR1" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="GI1" s="8" t="s">
+      <c r="GS1" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="GJ1" s="8" t="s">
+      <c r="GT1" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="GK1" s="8" t="s">
+      <c r="GU1" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="GL1" s="8" t="s">
+      <c r="GV1" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="GM1" s="13" t="s">
+      <c r="GW1" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="GN1" s="9" t="s">
+      <c r="GX1" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="GO1" s="9" t="s">
+      <c r="GY1" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="GP1" s="8" t="s">
+      <c r="GZ1" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="GQ1" s="8" t="s">
+      <c r="HA1" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="GR1" s="8" t="s">
+      <c r="HB1" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="GS1" s="8" t="s">
+      <c r="HC1" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="GT1" s="8" t="s">
+      <c r="HD1" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="GU1" s="8" t="s">
+      <c r="HE1" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="GV1" s="8" t="s">
+      <c r="HF1" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="GW1" s="8" t="s">
+      <c r="HG1" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="GX1" s="13" t="s">
+      <c r="HH1" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="GY1" s="9" t="s">
+      <c r="HI1" s="13" t="s">
         <v>205</v>
       </c>
-      <c r="GZ1" s="9" t="s">
+      <c r="HJ1" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="HA1" s="8" t="s">
+      <c r="HK1" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="HB1" s="8" t="s">
+      <c r="HL1" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="HC1" s="8" t="s">
+      <c r="HM1" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="HD1" s="8" t="s">
+      <c r="HN1" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="HE1" s="8" t="s">
+      <c r="HO1" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="HF1" s="8" t="s">
+      <c r="HP1" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="HG1" s="8" t="s">
+      <c r="HQ1" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="HH1" s="8" t="s">
+      <c r="HR1" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="HI1" s="13" t="s">
+      <c r="HS1" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="HJ1" s="9" t="s">
+      <c r="HT1" s="13" t="s">
         <v>216</v>
       </c>
-      <c r="HK1" s="9" t="s">
+      <c r="HU1" s="9" t="s">
         <v>217</v>
       </c>
-      <c r="HL1" s="8" t="s">
+      <c r="HV1" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="HM1" s="8" t="s">
+      <c r="HW1" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="HN1" s="8" t="s">
+      <c r="HX1" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="HO1" s="8" t="s">
+      <c r="HY1" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="HP1" s="8" t="s">
+      <c r="HZ1" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="HQ1" s="8" t="s">
+      <c r="IA1" s="8" t="s">
         <v>223</v>
-      </c>
-      <c r="HR1" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="HS1" s="8" t="s">
-        <v>225</v>
-      </c>
-      <c r="HT1" s="13" t="s">
-        <v>226</v>
-      </c>
-      <c r="HU1" s="9" t="s">
-        <v>227</v>
-      </c>
-      <c r="HV1" s="9" t="s">
-        <v>228</v>
-      </c>
-      <c r="HW1" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="HX1" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="HY1" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="HZ1" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="IA1" s="8" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="2" spans="1:235" x14ac:dyDescent="0.25">

--- a/Template/Export/Sari_Cases_9.xlsx
+++ b/Template/Export/Sari_Cases_9.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="241">
   <si>
     <t>id_pahoflu</t>
   </si>
@@ -739,6 +739,15 @@
   <si>
     <t>otros(especifique)</t>
   </si>
+  <si>
+    <t>UCI</t>
+  </si>
+  <si>
+    <t>identificador_muestra</t>
+  </si>
+  <si>
+    <t>temperatura_muestra</t>
+  </si>
 </sst>
 </file>
 
@@ -1177,7 +1186,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="A1:IE14441"/>
+  <dimension ref="A1:IH14441"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1303,55 +1312,57 @@
     <col min="136" max="136" width="17.75" style="7" bestFit="1" customWidth="1"/>
     <col min="137" max="137" width="11.375" style="5" bestFit="1" customWidth="1"/>
     <col min="138" max="138" width="18.625" style="6" bestFit="1" customWidth="1"/>
-    <col min="139" max="139" width="17.75" style="6" bestFit="1" customWidth="1"/>
-    <col min="140" max="140" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="141" max="141" width="17.75" style="6" bestFit="1" customWidth="1"/>
-    <col min="142" max="142" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="143" max="143" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="144" max="144" width="28.875" customWidth="1"/>
-    <col min="145" max="145" width="19.625" bestFit="1" customWidth="1"/>
-    <col min="146" max="147" width="19.625" customWidth="1"/>
-    <col min="148" max="148" width="30.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="149" max="149" width="12.75" style="5" bestFit="1" customWidth="1"/>
-    <col min="150" max="150" width="18.625" style="5" bestFit="1" customWidth="1"/>
-    <col min="151" max="151" width="22.125" bestFit="1" customWidth="1"/>
-    <col min="152" max="152" width="18.875" style="6" bestFit="1" customWidth="1"/>
-    <col min="153" max="153" width="14.75" bestFit="1" customWidth="1"/>
-    <col min="154" max="154" width="17.75" style="6" bestFit="1" customWidth="1"/>
-    <col min="155" max="155" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="156" max="156" width="28.875" customWidth="1"/>
-    <col min="157" max="157" width="19.625" style="6" bestFit="1" customWidth="1"/>
-    <col min="158" max="158" width="19.625" customWidth="1"/>
-    <col min="159" max="159" width="16.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="160" max="160" width="16.75" style="5" bestFit="1" customWidth="1"/>
-    <col min="161" max="161" width="19.375" style="5" bestFit="1" customWidth="1"/>
-    <col min="162" max="162" width="17.125" bestFit="1" customWidth="1"/>
-    <col min="163" max="163" width="17.75" bestFit="1" customWidth="1"/>
-    <col min="164" max="164" width="16.25" bestFit="1" customWidth="1"/>
-    <col min="165" max="165" width="16.75" bestFit="1" customWidth="1"/>
-    <col min="166" max="166" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="167" max="167" width="17.125" bestFit="1" customWidth="1"/>
-    <col min="168" max="168" width="17.75" bestFit="1" customWidth="1"/>
-    <col min="169" max="169" width="16.25" bestFit="1" customWidth="1"/>
-    <col min="170" max="170" width="16.75" bestFit="1" customWidth="1"/>
-    <col min="171" max="171" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="172" max="172" width="17.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="173" max="173" width="17.75" bestFit="1" customWidth="1"/>
-    <col min="174" max="174" width="18.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="175" max="175" width="18.625" style="5" bestFit="1" customWidth="1"/>
-    <col min="176" max="176" width="22.125" bestFit="1" customWidth="1"/>
-    <col min="177" max="177" width="18.875" bestFit="1" customWidth="1"/>
-    <col min="178" max="179" width="17.75" style="6" bestFit="1" customWidth="1"/>
-    <col min="180" max="180" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="188" max="188" width="13.375" customWidth="1"/>
-    <col min="189" max="190" width="18.375" style="6" bestFit="1" customWidth="1"/>
-    <col min="199" max="199" width="13.625" customWidth="1"/>
-    <col min="210" max="210" width="12.375" customWidth="1"/>
-    <col min="221" max="221" width="13.5" customWidth="1"/>
-    <col min="232" max="232" width="12.875" customWidth="1"/>
+    <col min="139" max="139" width="6.375" style="6" customWidth="1"/>
+    <col min="140" max="140" width="18.875" style="6" customWidth="1"/>
+    <col min="141" max="141" width="7" bestFit="1" customWidth="1"/>
+    <col min="142" max="142" width="18.875" style="6" customWidth="1"/>
+    <col min="143" max="143" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="144" max="144" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="145" max="145" width="28.875" customWidth="1"/>
+    <col min="146" max="146" width="19.625" bestFit="1" customWidth="1"/>
+    <col min="147" max="148" width="19.625" customWidth="1"/>
+    <col min="149" max="149" width="30.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="150" max="150" width="12.75" style="5" bestFit="1" customWidth="1"/>
+    <col min="151" max="151" width="18.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="152" max="152" width="22.125" bestFit="1" customWidth="1"/>
+    <col min="153" max="153" width="18.875" style="6" bestFit="1" customWidth="1"/>
+    <col min="154" max="154" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="155" max="155" width="17.75" style="6" bestFit="1" customWidth="1"/>
+    <col min="156" max="156" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="157" max="158" width="20.625" bestFit="1" customWidth="1"/>
+    <col min="159" max="159" width="28.875" customWidth="1"/>
+    <col min="160" max="160" width="19.625" style="6" bestFit="1" customWidth="1"/>
+    <col min="161" max="161" width="19.625" customWidth="1"/>
+    <col min="162" max="162" width="16.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="163" max="163" width="16.75" style="5" bestFit="1" customWidth="1"/>
+    <col min="164" max="164" width="19.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="165" max="165" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="166" max="166" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="167" max="167" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="168" max="168" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="169" max="169" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="170" max="170" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="171" max="171" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="172" max="172" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="173" max="173" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="174" max="174" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="175" max="175" width="17.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="176" max="176" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="177" max="177" width="18.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="178" max="178" width="18.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="179" max="179" width="22.125" bestFit="1" customWidth="1"/>
+    <col min="180" max="180" width="18.875" bestFit="1" customWidth="1"/>
+    <col min="181" max="182" width="17.75" style="6" bestFit="1" customWidth="1"/>
+    <col min="183" max="183" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="191" max="191" width="13.375" customWidth="1"/>
+    <col min="192" max="193" width="18.375" style="6" bestFit="1" customWidth="1"/>
+    <col min="202" max="202" width="13.625" customWidth="1"/>
+    <col min="213" max="213" width="12.375" customWidth="1"/>
+    <col min="224" max="224" width="13.5" customWidth="1"/>
+    <col min="235" max="235" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:239" s="9" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:242" s="9" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -1767,366 +1778,375 @@
         <v>125</v>
       </c>
       <c r="EI1" s="14" t="s">
+        <v>238</v>
+      </c>
+      <c r="EJ1" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="EJ1" s="9" t="s">
+      <c r="EK1" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="EK1" s="14" t="s">
+      <c r="EL1" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="EL1" s="9" t="s">
+      <c r="EM1" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="EM1" s="9" t="s">
+      <c r="EN1" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="EN1" s="9" t="s">
+      <c r="EO1" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="EO1" s="9" t="s">
+      <c r="EP1" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="EP1" s="9" t="s">
+      <c r="EQ1" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="EQ1" s="9" t="s">
+      <c r="ER1" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="ER1" s="9" t="s">
+      <c r="ES1" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="ES1" s="16" t="s">
+      <c r="ET1" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="ET1" s="9" t="s">
+      <c r="EU1" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="EU1" s="9" t="s">
+      <c r="EV1" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="EV1" s="14" t="s">
+      <c r="EW1" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="EW1" s="18" t="s">
+      <c r="EX1" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="EX1" s="14" t="s">
+      <c r="EY1" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="EY1" s="9" t="s">
+      <c r="EZ1" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="EZ1" s="9" t="s">
+      <c r="FA1" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="FB1" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="FC1" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="FA1" s="14" t="s">
+      <c r="FD1" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="FB1" s="15" t="s">
+      <c r="FE1" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="FC1" s="9" t="s">
+      <c r="FF1" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="FD1" s="9" t="s">
+      <c r="FG1" s="9" t="s">
         <v>230</v>
       </c>
-      <c r="FE1" s="9" t="s">
+      <c r="FH1" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="FF1" s="9" t="s">
+      <c r="FI1" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="FG1" s="9" t="s">
+      <c r="FJ1" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="FH1" s="9" t="s">
+      <c r="FK1" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="FI1" s="9" t="s">
+      <c r="FL1" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="FJ1" s="9" t="s">
+      <c r="FM1" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="FK1" s="9" t="s">
+      <c r="FN1" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="FL1" s="9" t="s">
+      <c r="FO1" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="FM1" s="9" t="s">
+      <c r="FP1" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="FN1" s="9" t="s">
+      <c r="FQ1" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="FO1" s="9" t="s">
+      <c r="FR1" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="FP1" s="9" t="s">
+      <c r="FS1" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="FQ1" s="9" t="s">
+      <c r="FT1" s="9" t="s">
         <v>235</v>
       </c>
-      <c r="FR1" s="9" t="s">
+      <c r="FU1" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="FS1" s="9" t="s">
+      <c r="FV1" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="FT1" s="9" t="s">
+      <c r="FW1" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="FU1" s="15" t="s">
+      <c r="FX1" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="FV1" s="14" t="s">
+      <c r="FY1" s="14" t="s">
         <v>157</v>
       </c>
-      <c r="FW1" s="14" t="s">
+      <c r="FZ1" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="FX1" s="9" t="s">
+      <c r="GA1" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="FY1" s="9" t="s">
+      <c r="GB1" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="FZ1" s="9" t="s">
+      <c r="GC1" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="GA1" s="9" t="s">
+      <c r="GD1" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="GB1" s="9" t="s">
+      <c r="GE1" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="GC1" s="9" t="s">
+      <c r="GF1" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="GD1" s="9" t="s">
+      <c r="GG1" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="GE1" s="9" t="s">
+      <c r="GH1" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="GF1" s="15" t="s">
+      <c r="GI1" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="GG1" s="14" t="s">
+      <c r="GJ1" s="14" t="s">
         <v>168</v>
       </c>
-      <c r="GH1" s="14" t="s">
+      <c r="GK1" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="GI1" s="9" t="s">
+      <c r="GL1" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="GJ1" s="9" t="s">
+      <c r="GM1" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="GK1" s="9" t="s">
+      <c r="GN1" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="GL1" s="9" t="s">
+      <c r="GO1" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="GM1" s="9" t="s">
+      <c r="GP1" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="GN1" s="9" t="s">
+      <c r="GQ1" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="GO1" s="9" t="s">
+      <c r="GR1" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="GP1" s="9" t="s">
+      <c r="GS1" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="GQ1" s="15" t="s">
+      <c r="GT1" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="GR1" s="10" t="s">
+      <c r="GU1" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="GS1" s="10" t="s">
+      <c r="GV1" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="GT1" s="9" t="s">
+      <c r="GW1" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="GU1" s="9" t="s">
+      <c r="GX1" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="GV1" s="9" t="s">
+      <c r="GY1" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="GW1" s="9" t="s">
+      <c r="GZ1" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="GX1" s="9" t="s">
+      <c r="HA1" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="GY1" s="9" t="s">
+      <c r="HB1" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="GZ1" s="9" t="s">
+      <c r="HC1" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="HA1" s="9" t="s">
+      <c r="HD1" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="HB1" s="15" t="s">
+      <c r="HE1" s="15" t="s">
         <v>189</v>
       </c>
-      <c r="HC1" s="10" t="s">
+      <c r="HF1" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="HD1" s="10" t="s">
+      <c r="HG1" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="HE1" s="9" t="s">
+      <c r="HH1" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="HF1" s="9" t="s">
+      <c r="HI1" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="HG1" s="9" t="s">
+      <c r="HJ1" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="HH1" s="9" t="s">
+      <c r="HK1" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="HI1" s="9" t="s">
+      <c r="HL1" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="HJ1" s="9" t="s">
+      <c r="HM1" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="HK1" s="9" t="s">
+      <c r="HN1" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="HL1" s="9" t="s">
+      <c r="HO1" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="HM1" s="15" t="s">
+      <c r="HP1" s="15" t="s">
         <v>200</v>
       </c>
-      <c r="HN1" s="10" t="s">
+      <c r="HQ1" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="HO1" s="10" t="s">
+      <c r="HR1" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="HP1" s="9" t="s">
+      <c r="HS1" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="HQ1" s="9" t="s">
+      <c r="HT1" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="HR1" s="9" t="s">
+      <c r="HU1" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="HS1" s="9" t="s">
+      <c r="HV1" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="HT1" s="9" t="s">
+      <c r="HW1" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="HU1" s="9" t="s">
+      <c r="HX1" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="HV1" s="9" t="s">
+      <c r="HY1" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="HW1" s="9" t="s">
+      <c r="HZ1" s="9" t="s">
         <v>210</v>
       </c>
-      <c r="HX1" s="15" t="s">
+      <c r="IA1" s="15" t="s">
         <v>211</v>
       </c>
-      <c r="HY1" s="10" t="s">
+      <c r="IB1" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="HZ1" s="10" t="s">
+      <c r="IC1" s="10" t="s">
         <v>213</v>
       </c>
-      <c r="IA1" s="9" t="s">
+      <c r="ID1" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="IB1" s="9" t="s">
+      <c r="IE1" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="IC1" s="9" t="s">
+      <c r="IF1" s="9" t="s">
         <v>216</v>
       </c>
-      <c r="ID1" s="9" t="s">
+      <c r="IG1" s="9" t="s">
         <v>217</v>
       </c>
-      <c r="IE1" s="9" t="s">
+      <c r="IH1" s="9" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="2" spans="1:239" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:242" x14ac:dyDescent="0.25">
       <c r="CY2"/>
       <c r="CZ2"/>
     </row>
-    <row r="3" spans="1:239" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:242" x14ac:dyDescent="0.25">
       <c r="CY3"/>
       <c r="CZ3"/>
     </row>
-    <row r="4" spans="1:239" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:242" x14ac:dyDescent="0.25">
       <c r="CY4"/>
       <c r="CZ4"/>
     </row>
-    <row r="5" spans="1:239" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:242" x14ac:dyDescent="0.25">
       <c r="CY5"/>
       <c r="CZ5"/>
     </row>
-    <row r="6" spans="1:239" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:242" x14ac:dyDescent="0.25">
       <c r="CY6"/>
       <c r="CZ6"/>
     </row>
-    <row r="7" spans="1:239" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:242" x14ac:dyDescent="0.25">
       <c r="CY7"/>
       <c r="CZ7"/>
     </row>
-    <row r="8" spans="1:239" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:242" x14ac:dyDescent="0.25">
       <c r="CY8"/>
       <c r="CZ8"/>
     </row>
-    <row r="9" spans="1:239" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:242" x14ac:dyDescent="0.25">
       <c r="CY9"/>
       <c r="CZ9"/>
     </row>
-    <row r="10" spans="1:239" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:242" x14ac:dyDescent="0.25">
       <c r="CY10"/>
       <c r="CZ10"/>
     </row>
-    <row r="11" spans="1:239" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:242" x14ac:dyDescent="0.25">
       <c r="CY11"/>
       <c r="CZ11"/>
     </row>
-    <row r="12" spans="1:239" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:242" x14ac:dyDescent="0.25">
       <c r="CY12"/>
       <c r="CZ12"/>
     </row>
-    <row r="13" spans="1:239" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:242" x14ac:dyDescent="0.25">
       <c r="CY13"/>
       <c r="CZ13"/>
     </row>
-    <row r="14" spans="1:239" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:242" x14ac:dyDescent="0.25">
       <c r="CY14"/>
       <c r="CZ14"/>
     </row>
-    <row r="15" spans="1:239" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:242" x14ac:dyDescent="0.25">
       <c r="CY15"/>
       <c r="CZ15"/>
     </row>
-    <row r="16" spans="1:239" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:242" x14ac:dyDescent="0.25">
       <c r="CY16"/>
       <c r="CZ16"/>
     </row>

--- a/Template/Export/Sari_Cases_9.xlsx
+++ b/Template/Export/Sari_Cases_9.xlsx
@@ -1,21 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22130"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Template\Export\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBBB4032-3324-4CBF-9A2F-E28112FFE161}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="10320" tabRatio="500"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -24,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="262">
   <si>
     <t>id_pahoflu</t>
   </si>
@@ -748,11 +755,74 @@
   <si>
     <t>temperatura_muestra</t>
   </si>
+  <si>
+    <t>motivo_toma_muestra_NO</t>
+  </si>
+  <si>
+    <t>motivo_toma_muestra_NO_otro</t>
+  </si>
+  <si>
+    <t>NIC_identificador_muestra</t>
+  </si>
+  <si>
+    <t>NIC_procesado</t>
+  </si>
+  <si>
+    <t>NIC_recepcion_muestra_fecha</t>
+  </si>
+  <si>
+    <t>NIC_temperatura_muestra</t>
+  </si>
+  <si>
+    <t>NIC_motivo_no_procesado</t>
+  </si>
+  <si>
+    <t>motivo_no_procesado_otro</t>
+  </si>
+  <si>
+    <t>NIC_motivo_no_procesado_otro</t>
+  </si>
+  <si>
+    <t>otro_virus_proceso_1</t>
+  </si>
+  <si>
+    <t>otro2_virus_proceso_1</t>
+  </si>
+  <si>
+    <t>otro_virus_proceso_2</t>
+  </si>
+  <si>
+    <t>otro2_virus_proceso_2</t>
+  </si>
+  <si>
+    <t>otro_virus_proceso_3</t>
+  </si>
+  <si>
+    <t>otro2_virus_proceso_3</t>
+  </si>
+  <si>
+    <t>otro2_virus_proceso_4</t>
+  </si>
+  <si>
+    <t>otro_virus_proceso_4</t>
+  </si>
+  <si>
+    <t>otro_virus_proceso_5</t>
+  </si>
+  <si>
+    <t>otro2_virus_proceso_5</t>
+  </si>
+  <si>
+    <t>otro_virus_proceso_6</t>
+  </si>
+  <si>
+    <t>otro2_virus_proceso_6</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="dd/mmm/yyyy;@"/>
     <numFmt numFmtId="165" formatCode="[$-40A]dd/mmm/yyyy;@"/>
@@ -1184,16 +1254,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="A1:IH14441"/>
+  <dimension ref="A1:JC14441"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.875" style="5" bestFit="1" customWidth="1"/>
@@ -1321,48 +1391,84 @@
     <col min="145" max="145" width="28.875" customWidth="1"/>
     <col min="146" max="146" width="19.625" bestFit="1" customWidth="1"/>
     <col min="147" max="148" width="19.625" customWidth="1"/>
-    <col min="149" max="149" width="30.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="150" max="150" width="12.75" style="5" bestFit="1" customWidth="1"/>
-    <col min="151" max="151" width="18.625" style="5" bestFit="1" customWidth="1"/>
-    <col min="152" max="152" width="22.125" bestFit="1" customWidth="1"/>
-    <col min="153" max="153" width="18.875" style="6" bestFit="1" customWidth="1"/>
-    <col min="154" max="154" width="14.75" bestFit="1" customWidth="1"/>
-    <col min="155" max="155" width="17.75" style="6" bestFit="1" customWidth="1"/>
-    <col min="156" max="156" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="157" max="158" width="20.625" bestFit="1" customWidth="1"/>
-    <col min="159" max="159" width="28.875" customWidth="1"/>
-    <col min="160" max="160" width="19.625" style="6" bestFit="1" customWidth="1"/>
-    <col min="161" max="161" width="19.625" customWidth="1"/>
-    <col min="162" max="162" width="16.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="163" max="163" width="16.75" style="5" bestFit="1" customWidth="1"/>
-    <col min="164" max="164" width="19.375" style="5" bestFit="1" customWidth="1"/>
-    <col min="165" max="165" width="17.125" bestFit="1" customWidth="1"/>
-    <col min="166" max="166" width="17.75" bestFit="1" customWidth="1"/>
-    <col min="167" max="167" width="16.25" bestFit="1" customWidth="1"/>
-    <col min="168" max="168" width="16.75" bestFit="1" customWidth="1"/>
-    <col min="169" max="169" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="170" max="170" width="17.125" bestFit="1" customWidth="1"/>
-    <col min="171" max="171" width="17.75" bestFit="1" customWidth="1"/>
-    <col min="172" max="172" width="16.25" bestFit="1" customWidth="1"/>
-    <col min="173" max="173" width="16.75" bestFit="1" customWidth="1"/>
-    <col min="174" max="174" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="175" max="175" width="17.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="176" max="176" width="17.75" bestFit="1" customWidth="1"/>
-    <col min="177" max="177" width="18.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="178" max="178" width="18.625" style="5" bestFit="1" customWidth="1"/>
-    <col min="179" max="179" width="22.125" bestFit="1" customWidth="1"/>
-    <col min="180" max="180" width="18.875" bestFit="1" customWidth="1"/>
-    <col min="181" max="182" width="17.75" style="6" bestFit="1" customWidth="1"/>
-    <col min="183" max="183" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="191" max="191" width="13.375" customWidth="1"/>
-    <col min="192" max="193" width="18.375" style="6" bestFit="1" customWidth="1"/>
-    <col min="202" max="202" width="13.625" customWidth="1"/>
-    <col min="213" max="213" width="12.375" customWidth="1"/>
-    <col min="224" max="224" width="13.5" customWidth="1"/>
-    <col min="235" max="235" width="12.875" customWidth="1"/>
+    <col min="149" max="149" width="24.625" customWidth="1"/>
+    <col min="150" max="150" width="29.625" customWidth="1"/>
+    <col min="151" max="151" width="30.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="152" max="152" width="12.75" style="5" bestFit="1" customWidth="1"/>
+    <col min="153" max="153" width="18.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="154" max="154" width="22.125" bestFit="1" customWidth="1"/>
+    <col min="155" max="155" width="18.875" style="6" bestFit="1" customWidth="1"/>
+    <col min="156" max="156" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="157" max="157" width="17.75" style="6" bestFit="1" customWidth="1"/>
+    <col min="158" max="158" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="159" max="160" width="20.625" bestFit="1" customWidth="1"/>
+    <col min="161" max="162" width="28.875" customWidth="1"/>
+    <col min="163" max="163" width="17.75" style="6" bestFit="1" customWidth="1"/>
+    <col min="164" max="164" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="165" max="166" width="20.625" bestFit="1" customWidth="1"/>
+    <col min="167" max="167" width="28.875" customWidth="1"/>
+    <col min="168" max="168" width="30.125" bestFit="1" customWidth="1"/>
+    <col min="169" max="169" width="19.625" style="6" bestFit="1" customWidth="1"/>
+    <col min="170" max="170" width="19.625" customWidth="1"/>
+    <col min="171" max="171" width="16.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="172" max="172" width="16.75" style="5" bestFit="1" customWidth="1"/>
+    <col min="173" max="173" width="19.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="174" max="174" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="175" max="175" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="176" max="176" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="177" max="177" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="178" max="178" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="179" max="179" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="180" max="180" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="181" max="181" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="182" max="182" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="183" max="183" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="184" max="184" width="17.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="185" max="185" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="186" max="186" width="18.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="187" max="187" width="18.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="188" max="188" width="22.125" bestFit="1" customWidth="1"/>
+    <col min="189" max="189" width="18.875" bestFit="1" customWidth="1"/>
+    <col min="190" max="191" width="17.75" style="6" bestFit="1" customWidth="1"/>
+    <col min="192" max="192" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="194" max="194" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="195" max="195" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="196" max="196" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="202" max="202" width="13.375" customWidth="1"/>
+    <col min="203" max="204" width="18.375" style="6" bestFit="1" customWidth="1"/>
+    <col min="207" max="207" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="208" max="208" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="209" max="209" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="210" max="210" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="215" max="215" width="13.625" customWidth="1"/>
+    <col min="216" max="216" width="19.125" style="6" bestFit="1" customWidth="1"/>
+    <col min="217" max="217" width="19.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="220" max="220" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="221" max="221" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="222" max="222" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="228" max="228" width="12.375" customWidth="1"/>
+    <col min="229" max="229" width="19.125" style="6" bestFit="1" customWidth="1"/>
+    <col min="230" max="230" width="19.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="233" max="233" width="15.375" customWidth="1"/>
+    <col min="234" max="234" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="235" max="235" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="236" max="236" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="241" max="241" width="13.5" customWidth="1"/>
+    <col min="242" max="242" width="19.125" style="6" bestFit="1" customWidth="1"/>
+    <col min="243" max="243" width="19.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="246" max="246" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="247" max="247" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="248" max="248" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="254" max="254" width="12.875" customWidth="1"/>
+    <col min="255" max="255" width="19.125" style="6" bestFit="1" customWidth="1"/>
+    <col min="256" max="256" width="19.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="259" max="259" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="260" max="260" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="261" max="261" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="262" max="262" width="18.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:242" s="9" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:263" s="9" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -1808,345 +1914,408 @@
         <v>134</v>
       </c>
       <c r="ES1" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="ET1" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="EU1" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="ET1" s="16" t="s">
+      <c r="EV1" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="EU1" s="9" t="s">
+      <c r="EW1" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="EV1" s="9" t="s">
+      <c r="EX1" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="EW1" s="14" t="s">
+      <c r="EY1" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="EX1" s="18" t="s">
+      <c r="EZ1" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="EY1" s="14" t="s">
+      <c r="FA1" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="EZ1" s="9" t="s">
+      <c r="FB1" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="FA1" s="9" t="s">
+      <c r="FC1" s="9" t="s">
         <v>239</v>
       </c>
-      <c r="FB1" s="9" t="s">
+      <c r="FD1" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="FC1" s="9" t="s">
+      <c r="FE1" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="FD1" s="14" t="s">
+      <c r="FF1" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="FG1" s="14" t="s">
+        <v>245</v>
+      </c>
+      <c r="FH1" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="FI1" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="FJ1" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="FK1" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="FL1" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="FM1" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="FE1" s="15" t="s">
+      <c r="FN1" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="FF1" s="9" t="s">
+      <c r="FO1" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="FG1" s="9" t="s">
+      <c r="FP1" s="9" t="s">
         <v>230</v>
       </c>
-      <c r="FH1" s="9" t="s">
+      <c r="FQ1" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="FI1" s="9" t="s">
+      <c r="FR1" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="FJ1" s="9" t="s">
+      <c r="FS1" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="FK1" s="9" t="s">
+      <c r="FT1" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="FL1" s="9" t="s">
+      <c r="FU1" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="FM1" s="9" t="s">
+      <c r="FV1" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="FN1" s="9" t="s">
+      <c r="FW1" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="FO1" s="9" t="s">
+      <c r="FX1" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="FP1" s="9" t="s">
+      <c r="FY1" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="FQ1" s="9" t="s">
+      <c r="FZ1" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="FR1" s="9" t="s">
+      <c r="GA1" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="FS1" s="9" t="s">
+      <c r="GB1" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="FT1" s="9" t="s">
+      <c r="GC1" s="9" t="s">
         <v>235</v>
       </c>
-      <c r="FU1" s="9" t="s">
+      <c r="GD1" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="FV1" s="9" t="s">
+      <c r="GE1" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="FW1" s="9" t="s">
+      <c r="GF1" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="FX1" s="15" t="s">
+      <c r="GG1" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="FY1" s="14" t="s">
+      <c r="GH1" s="14" t="s">
         <v>157</v>
       </c>
-      <c r="FZ1" s="14" t="s">
+      <c r="GI1" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="GA1" s="9" t="s">
+      <c r="GJ1" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="GB1" s="9" t="s">
+      <c r="GK1" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="GC1" s="9" t="s">
+      <c r="GL1" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="GD1" s="9" t="s">
+      <c r="GM1" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="GN1" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="GO1" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="GE1" s="9" t="s">
+      <c r="GP1" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="GF1" s="9" t="s">
+      <c r="GQ1" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="GG1" s="9" t="s">
+      <c r="GR1" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="GH1" s="9" t="s">
+      <c r="GS1" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="GI1" s="15" t="s">
+      <c r="GT1" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="GJ1" s="14" t="s">
+      <c r="GU1" s="14" t="s">
         <v>168</v>
       </c>
-      <c r="GK1" s="14" t="s">
+      <c r="GV1" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="GL1" s="9" t="s">
+      <c r="GW1" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="GM1" s="9" t="s">
+      <c r="GX1" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="GN1" s="9" t="s">
+      <c r="GY1" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="GO1" s="9" t="s">
+      <c r="GZ1" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="HA1" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="HB1" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="GP1" s="9" t="s">
+      <c r="HC1" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="GQ1" s="9" t="s">
+      <c r="HD1" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="GR1" s="9" t="s">
+      <c r="HE1" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="GS1" s="9" t="s">
+      <c r="HF1" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="GT1" s="15" t="s">
+      <c r="HG1" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="GU1" s="10" t="s">
+      <c r="HH1" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="GV1" s="10" t="s">
+      <c r="HI1" s="14" t="s">
         <v>180</v>
       </c>
-      <c r="GW1" s="9" t="s">
+      <c r="HJ1" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="GX1" s="9" t="s">
+      <c r="HK1" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="GY1" s="9" t="s">
+      <c r="HL1" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="GZ1" s="9" t="s">
+      <c r="HM1" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="HN1" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="HO1" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="HA1" s="9" t="s">
+      <c r="HP1" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="HB1" s="9" t="s">
+      <c r="HQ1" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="HC1" s="9" t="s">
+      <c r="HR1" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="HD1" s="9" t="s">
+      <c r="HS1" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="HE1" s="15" t="s">
+      <c r="HT1" s="15" t="s">
         <v>189</v>
       </c>
-      <c r="HF1" s="10" t="s">
+      <c r="HU1" s="14" t="s">
         <v>190</v>
       </c>
-      <c r="HG1" s="10" t="s">
+      <c r="HV1" s="14" t="s">
         <v>191</v>
       </c>
-      <c r="HH1" s="9" t="s">
+      <c r="HW1" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="HI1" s="9" t="s">
+      <c r="HX1" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="HJ1" s="9" t="s">
+      <c r="HY1" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="HK1" s="9" t="s">
+      <c r="HZ1" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="IA1" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="IB1" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="HL1" s="9" t="s">
+      <c r="IC1" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="HM1" s="9" t="s">
+      <c r="ID1" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="HN1" s="9" t="s">
+      <c r="IE1" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="HO1" s="9" t="s">
+      <c r="IF1" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="HP1" s="15" t="s">
+      <c r="IG1" s="15" t="s">
         <v>200</v>
       </c>
-      <c r="HQ1" s="10" t="s">
+      <c r="IH1" s="14" t="s">
         <v>201</v>
       </c>
-      <c r="HR1" s="10" t="s">
+      <c r="II1" s="14" t="s">
         <v>202</v>
       </c>
-      <c r="HS1" s="9" t="s">
+      <c r="IJ1" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="HT1" s="9" t="s">
+      <c r="IK1" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="HU1" s="9" t="s">
+      <c r="IL1" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="HV1" s="9" t="s">
+      <c r="IM1" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="IN1" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="IO1" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="HW1" s="9" t="s">
+      <c r="IP1" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="HX1" s="9" t="s">
+      <c r="IQ1" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="HY1" s="9" t="s">
+      <c r="IR1" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="HZ1" s="9" t="s">
+      <c r="IS1" s="9" t="s">
         <v>210</v>
       </c>
-      <c r="IA1" s="15" t="s">
+      <c r="IT1" s="15" t="s">
         <v>211</v>
       </c>
-      <c r="IB1" s="10" t="s">
+      <c r="IU1" s="14" t="s">
         <v>212</v>
       </c>
-      <c r="IC1" s="10" t="s">
+      <c r="IV1" s="14" t="s">
         <v>213</v>
       </c>
-      <c r="ID1" s="9" t="s">
+      <c r="IW1" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="IE1" s="9" t="s">
+      <c r="IX1" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="IF1" s="9" t="s">
+      <c r="IY1" s="9" t="s">
         <v>216</v>
       </c>
-      <c r="IG1" s="9" t="s">
+      <c r="IZ1" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="JA1" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="JB1" s="9" t="s">
         <v>217</v>
       </c>
-      <c r="IH1" s="9" t="s">
+      <c r="JC1" s="9" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="2" spans="1:242" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:263" x14ac:dyDescent="0.25">
       <c r="CY2"/>
       <c r="CZ2"/>
     </row>
-    <row r="3" spans="1:242" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:263" x14ac:dyDescent="0.25">
       <c r="CY3"/>
       <c r="CZ3"/>
     </row>
-    <row r="4" spans="1:242" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:263" x14ac:dyDescent="0.25">
       <c r="CY4"/>
       <c r="CZ4"/>
     </row>
-    <row r="5" spans="1:242" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:263" x14ac:dyDescent="0.25">
       <c r="CY5"/>
       <c r="CZ5"/>
     </row>
-    <row r="6" spans="1:242" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:263" x14ac:dyDescent="0.25">
       <c r="CY6"/>
       <c r="CZ6"/>
     </row>
-    <row r="7" spans="1:242" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:263" x14ac:dyDescent="0.25">
       <c r="CY7"/>
       <c r="CZ7"/>
     </row>
-    <row r="8" spans="1:242" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:263" x14ac:dyDescent="0.25">
       <c r="CY8"/>
       <c r="CZ8"/>
     </row>
-    <row r="9" spans="1:242" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:263" x14ac:dyDescent="0.25">
       <c r="CY9"/>
       <c r="CZ9"/>
     </row>
-    <row r="10" spans="1:242" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:263" x14ac:dyDescent="0.25">
       <c r="CY10"/>
       <c r="CZ10"/>
     </row>
-    <row r="11" spans="1:242" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:263" x14ac:dyDescent="0.25">
       <c r="CY11"/>
       <c r="CZ11"/>
     </row>
-    <row r="12" spans="1:242" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:263" x14ac:dyDescent="0.25">
       <c r="CY12"/>
       <c r="CZ12"/>
     </row>
-    <row r="13" spans="1:242" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:263" x14ac:dyDescent="0.25">
       <c r="CY13"/>
       <c r="CZ13"/>
     </row>
-    <row r="14" spans="1:242" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:263" x14ac:dyDescent="0.25">
       <c r="CY14"/>
       <c r="CZ14"/>
     </row>
-    <row r="15" spans="1:242" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:263" x14ac:dyDescent="0.25">
       <c r="CY15"/>
       <c r="CZ15"/>
     </row>
-    <row r="16" spans="1:242" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:263" x14ac:dyDescent="0.25">
       <c r="CY16"/>
       <c r="CZ16"/>
     </row>

--- a/Template/Export/Sari_Cases_9.xlsx
+++ b/Template/Export/Sari_Cases_9.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Template\Export\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFA0B1D2-EF4C-45ED-ABFB-ACF448892DA6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6DB0498-1088-421C-AE60-DB53D21CD55A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Exportación registros" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
